--- a/data/trans_bre/P0902-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 9,0</t>
+          <t>0,22; 9,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,31</t>
+          <t>1,64; 10,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,06</t>
+          <t>-1,06; 8,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,98</t>
+          <t>0,82; 7,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 158,76</t>
+          <t>-0,45; 154,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 240,35</t>
+          <t>19,72; 243,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 134,96</t>
+          <t>-11,71; 143,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 127,67</t>
+          <t>7,82; 120,97</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 8,16</t>
+          <t>0,15; 7,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,0</t>
+          <t>-3,93; 5,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 8,54</t>
+          <t>0,06; 8,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,8</t>
+          <t>0,2; 7,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 240,61</t>
+          <t>-2,43; 222,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 58,95</t>
+          <t>-32,25; 66,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 206,95</t>
+          <t>-0,66; 205,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 105,87</t>
+          <t>2,6; 102,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,19</t>
+          <t>5,24; 18,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 12,58</t>
+          <t>0,57; 12,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 21,33</t>
+          <t>6,37; 20,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 25,11</t>
+          <t>5,48; 24,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,24; 295,01</t>
+          <t>58,57; 298,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 107,07</t>
+          <t>3,67; 103,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,62; 271,5</t>
+          <t>60,37; 268,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,4; 628,32</t>
+          <t>31,64; 589,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 5,2</t>
+          <t>-1,02; 4,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,66</t>
+          <t>-1,41; 5,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,29</t>
+          <t>-0,64; 5,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 1,03</t>
+          <t>-10,77; 0,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 56,52</t>
+          <t>-8,73; 55,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 48,88</t>
+          <t>-9,78; 48,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 56,0</t>
+          <t>-5,95; 55,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,28; 6,7</t>
+          <t>-58,56; 6,02</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 8,57</t>
+          <t>0,16; 8,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,83; 19,64</t>
+          <t>10,64; 19,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 13,5</t>
+          <t>5,65; 13,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 10,76</t>
+          <t>-1,14; 10,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 103,37</t>
+          <t>-1,87; 105,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,46; 191,67</t>
+          <t>71,62; 192,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,42; 114,88</t>
+          <t>34,84; 117,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 69,71</t>
+          <t>-4,82; 70,32</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,18</t>
+          <t>11,43; 17,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,69</t>
+          <t>15,12; 22,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,3</t>
+          <t>16,9; 23,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,29; 25,06</t>
+          <t>18,41; 25,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>208,48; 995,02</t>
+          <t>213,25; 1051,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>231,34; 1255,99</t>
+          <t>205,54; 1207,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>445,39; 5482,69</t>
+          <t>392,76; 5568,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>327,99; 2066,6</t>
+          <t>352,3; 2177,45</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,92</t>
+          <t>4,97; 7,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,14; 10,88</t>
+          <t>7,08; 10,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,01</t>
+          <t>6,77; 10,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,5</t>
+          <t>3,41; 9,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,4; 105,86</t>
+          <t>55,91; 107,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,97; 106,95</t>
+          <t>59,05; 104,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>66,9; 115,1</t>
+          <t>68,44; 117,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,47; 96,9</t>
+          <t>29,2; 95,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P0902-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
